--- a/Simulation/Sizing/motorData/M13-M34 performance curve 20200916.xlsx
+++ b/Simulation/Sizing/motorData/M13-M34 performance curve 20200916.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E07FE09-0930-477C-A881-0E853A47B14C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A04279-13FF-49FE-AACC-11EC63CA69DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-345" yWindow="690" windowWidth="24060" windowHeight="19320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54270" yWindow="-1050" windowWidth="29820" windowHeight="19980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -668,6 +668,1187 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>M21S5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$BC$7:$BC$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$BF$7:$BF$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102.80769230769231</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.464285714285708</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83.53125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78.617647058823536</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70.34210526315789</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66.825000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>63.642857142857146</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58.108695652173914</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55.6875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2139-4AAF-897B-9B7D1228E026}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>M21R5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$BI$7:$BI$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$BL$7:$BL$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110.76923076923077</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.705882352941174</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75.78947368421052</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62.608695652173914</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>57.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2139-4AAF-897B-9B7D1228E026}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1230948824"/>
+        <c:axId val="1230950464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1230948824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230950464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1230950464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230948824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
@@ -709,6 +1890,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>135591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>1081367</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21291</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F1DE24-919C-4AD6-AD07-2FB52D6E9E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1035,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:BM62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BA11" sqref="BA11:BA16"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE39" sqref="AE39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4561,6 +5783,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4595,15 +5818,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CAE60540A1AE0C40A57867F6D1668AAB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a077bfdb5c83a9e90026d9660a1fda64">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0b06742-ce3d-43d6-80c6-a38c29477f3b" xmlns:ns3="ac8b36ea-85bd-4ee9-9a25-ec081feb3b1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab75e0c3651772810f3079df645c8c4c" ns2:_="" ns3:_="">
     <xsd:import namespace="f0b06742-ce3d-43d6-80c6-a38c29477f3b"/>
@@ -4808,6 +6022,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C887559-7771-4403-8D1D-96BB517FF6B2}">
   <ds:schemaRefs>
@@ -4818,14 +6041,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39AACE-8895-4AA7-A7CC-069EC4C6B0D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADADBB7C-17F4-4F6F-BBC4-57C2C59FD103}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4842,4 +6057,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39AACE-8895-4AA7-A7CC-069EC4C6B0D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>